--- a/7/2/2/2/2/Hogares e IPSFL 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/Hogares e IPSFL 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Serie</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W74"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5853,37 +5856,37 @@
         <v>95</v>
       </c>
       <c r="B74">
-        <v>2687</v>
+        <v>2556</v>
       </c>
       <c r="C74">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="D74">
-        <v>-349</v>
+        <v>-355</v>
       </c>
       <c r="E74">
-        <v>719</v>
+        <v>795</v>
       </c>
       <c r="F74">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I74">
-        <v>3615</v>
+        <v>3696</v>
       </c>
       <c r="J74">
-        <v>1408</v>
+        <v>1484</v>
       </c>
       <c r="K74">
         <v>1078</v>
       </c>
       <c r="L74">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="M74">
         <v>-902</v>
@@ -5898,25 +5901,96 @@
         <v>-1</v>
       </c>
       <c r="Q74">
-        <v>-471</v>
+        <v>-783</v>
       </c>
       <c r="R74">
-        <v>1052</v>
+        <v>910</v>
       </c>
       <c r="S74">
-        <v>1635</v>
+        <v>1646</v>
       </c>
       <c r="T74">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="U74">
         <v>-32</v>
       </c>
       <c r="V74">
-        <v>1800</v>
+        <v>1811</v>
       </c>
       <c r="W74">
         <v>-132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75">
+        <v>4476</v>
+      </c>
+      <c r="C75">
+        <v>10932</v>
+      </c>
+      <c r="D75">
+        <v>7769</v>
+      </c>
+      <c r="E75">
+        <v>3163</v>
+      </c>
+      <c r="F75">
+        <v>28</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>28</v>
+      </c>
+      <c r="I75">
+        <v>1142</v>
+      </c>
+      <c r="J75">
+        <v>891</v>
+      </c>
+      <c r="K75">
+        <v>562</v>
+      </c>
+      <c r="L75">
+        <v>-311</v>
+      </c>
+      <c r="M75">
+        <v>-8347</v>
+      </c>
+      <c r="N75">
+        <v>-533</v>
+      </c>
+      <c r="O75">
+        <v>-520</v>
+      </c>
+      <c r="P75">
+        <v>-13</v>
+      </c>
+      <c r="Q75">
+        <v>1255</v>
+      </c>
+      <c r="R75">
+        <v>1913</v>
+      </c>
+      <c r="S75">
+        <v>2562</v>
+      </c>
+      <c r="T75">
+        <v>2517</v>
+      </c>
+      <c r="U75">
+        <v>-148</v>
+      </c>
+      <c r="V75">
+        <v>2665</v>
+      </c>
+      <c r="W75">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/7/2/2/2/2/Hogares e IPSFL 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/Hogares e IPSFL 2003 a 2021 - Trimestral.xlsx
@@ -58,7 +58,7 @@
     <t>Reservas técnicas de seguros activos</t>
   </si>
   <si>
-    <t>Reservas técnicas de seguros de vida activos</t>
+    <t>Derechos sobre las reservas de seguros de vida, activos</t>
   </si>
   <si>
     <t>Reservas para primas y para siniestros activos</t>
